--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_23.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1310351.133562261</v>
+        <v>1328725.823028382</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.511665972</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>103.5280487491366</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,7 +671,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>249.4237682275164</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>80.88877949312982</v>
       </c>
       <c r="W4" t="n">
-        <v>129.0246247964035</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>350.1915030879734</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>189.8595359871535</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>110.0115294480439</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>160.4740936944298</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>260.0413049483316</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>121.7296243764975</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>27.37301815329025</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>223.1498336210773</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>143.3158222056508</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722589</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>143.3158222056508</v>
       </c>
       <c r="Y16" t="n">
-        <v>209.762955662315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>93.96684935764591</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>64.34190763938388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>135.5535868730193</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>48.85174888144395</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>33.35146980185854</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>34.38783958693173</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>102.0005969012859</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>119.8338438389643</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,13 +3004,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3080,7 +3080,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>96.71233187893849</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>101.2898147863549</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>86.17363552701741</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>75.76139154728293</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3554,7 +3554,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>98.30359535938337</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,19 +3715,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>115.5269768002176</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>58.29070341759515</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.82250368547712</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
         <v>81.77913505274077</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>132.5906791667248</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>35.15376960382125</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2212.181128500977</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y2" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>184.2708856551155</v>
+        <v>617.0062271882081</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1703.566937845283</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4598,19 +4598,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2450.343092470783</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2119.280205127212</v>
       </c>
       <c r="W5" t="n">
-        <v>2057.295728843236</v>
+        <v>1766.511549857098</v>
       </c>
       <c r="X5" t="n">
-        <v>2057.295728843236</v>
+        <v>1766.511549857098</v>
       </c>
       <c r="Y5" t="n">
-        <v>2057.295728843236</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="6">
@@ -4650,16 +4650,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1251.855211652197</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C8" t="n">
-        <v>882.8926947117852</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>894.986251472586</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>894.986251472586</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>888.0407507233825</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>470.0769426215694</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2342.983697320969</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2011.920809977398</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2011.920809977398</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1638.455051716319</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1638.455051716319</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>81.59249510651622</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>81.59249510651622</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>81.59249510651622</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>81.59249510651622</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>81.59249510651622</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>81.59249510651622</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>81.59249510651622</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>81.59249510651622</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T10" t="n">
-        <v>502.7251118619119</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U10" t="n">
-        <v>502.7251118619119</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V10" t="n">
-        <v>502.7251118619119</v>
+        <v>81.59249510651622</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>81.59249510651622</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>81.59249510651622</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>81.59249510651622</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571605</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>1206.718781115525</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395486</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>786.082206476518</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706311</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>241.9805482336705</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571605</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>1206.718781115525</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864553</v>
+        <v>1514.038914395486</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528586</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>994.3109288932102</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C16" t="n">
-        <v>825.3747459653033</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D16" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>786.082206476518</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>531.3977182706311</v>
       </c>
       <c r="W16" t="n">
-        <v>1387.841167119728</v>
+        <v>241.9805482336705</v>
       </c>
       <c r="X16" t="n">
-        <v>1387.841167119728</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y16" t="n">
-        <v>1175.95939372345</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5540,25 +5540,25 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>2500.819361250802</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>2911.709630095314</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636248</v>
+        <v>3158.474758001778</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>3465.79489128174</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945772</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164469</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>4595.498205900216</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="19">
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1141.200876391121</v>
+        <v>917.0640635030455</v>
       </c>
       <c r="C19" t="n">
-        <v>972.2646934632137</v>
+        <v>917.0640635030455</v>
       </c>
       <c r="D19" t="n">
         <v>822.1480540508779</v>
@@ -5671,22 +5671,22 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>1098.712528333285</v>
       </c>
       <c r="V19" t="n">
-        <v>1387.841167119728</v>
+        <v>1098.712528333285</v>
       </c>
       <c r="W19" t="n">
-        <v>1387.841167119728</v>
+        <v>1098.712528333285</v>
       </c>
       <c r="X19" t="n">
-        <v>1387.841167119728</v>
+        <v>1098.712528333285</v>
       </c>
       <c r="Y19" t="n">
-        <v>1322.84934122136</v>
+        <v>1098.712528333285</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,31 +5768,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.200876391121</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632137</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>296.98030080269</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>296.98030080269</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5941,19 +5941,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W22" t="n">
-        <v>1498.916270557902</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X22" t="n">
-        <v>1498.916270557902</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y22" t="n">
-        <v>1278.123691414372</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916675</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.859459491669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281175</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>4036.945405494733</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>3782.260917288846</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W25" t="n">
-        <v>3492.843747251885</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X25" t="n">
-        <v>3459.155393916675</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916675</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="26">
@@ -6224,16 +6224,16 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6309,19 +6309,19 @@
         <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>3808.955854596716</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>3808.955854596716</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>3808.955854596716</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>3774.220663094764</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>4326.074044281175</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>4036.945405494733</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>4036.945405494733</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>4036.945405494733</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028583</v>
+        <v>3808.955854596716</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028583</v>
+        <v>3808.955854596716</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6461,16 +6461,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6479,7 +6479,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115524</v>
+        <v>638.3691419079765</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>665.6859735286132</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C31" t="n">
-        <v>665.6859735286132</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D31" t="n">
-        <v>515.5693341162774</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E31" t="n">
-        <v>394.5250474102529</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6652,19 +6652,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655738</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W31" t="n">
-        <v>665.6859735286132</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X31" t="n">
-        <v>665.6859735286132</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="Y31" t="n">
-        <v>665.6859735286132</v>
+        <v>1244.231782352015</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6695,16 +6695,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6716,16 +6716,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.0432218861031</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C34" t="n">
-        <v>244.1070389581962</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D34" t="n">
-        <v>244.1070389581962</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>4326.074044281175</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>4036.945405494733</v>
       </c>
       <c r="V34" t="n">
-        <v>1112.098407651321</v>
+        <v>3782.260917288846</v>
       </c>
       <c r="W34" t="n">
-        <v>822.6812376143602</v>
+        <v>3679.947973060205</v>
       </c>
       <c r="X34" t="n">
-        <v>594.6916867163428</v>
+        <v>3679.947973060205</v>
       </c>
       <c r="Y34" t="n">
-        <v>594.6916867163428</v>
+        <v>3459.155393916675</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,13 +6923,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6953,10 +6953,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115524</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>454.2145238948139</v>
+        <v>799.8610847926847</v>
       </c>
       <c r="C37" t="n">
-        <v>285.278340966907</v>
+        <v>799.8610847926847</v>
       </c>
       <c r="D37" t="n">
-        <v>285.278340966907</v>
+        <v>649.7444453803489</v>
       </c>
       <c r="E37" t="n">
-        <v>285.278340966907</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F37" t="n">
-        <v>285.278340966907</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>285.278340966907</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7117,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>675.007103038344</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X37" t="n">
-        <v>675.007103038344</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y37" t="n">
-        <v>454.2145238948139</v>
+        <v>981.5095496229244</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,28 +7172,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7257,19 +7257,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>3895.563459493836</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>3726.627276565929</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="X40" t="n">
-        <v>213.9110074201016</v>
+        <v>4298.004503467606</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>4077.211924324076</v>
       </c>
     </row>
     <row r="41">
@@ -7412,25 +7412,25 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7445,7 +7445,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
@@ -7494,16 +7494,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>711.072954880832</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C43" t="n">
-        <v>542.1367719529251</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405893</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>939.0625057788493</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>939.0625057788493</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W43" t="n">
-        <v>939.0625057788493</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X43" t="n">
-        <v>711.072954880832</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y43" t="n">
-        <v>711.072954880832</v>
+        <v>920.3704617344999</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7634,13 +7634,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7658,7 +7658,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>584.4452354807079</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C46" t="n">
-        <v>415.509052552801</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1128.546893723556</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V46" t="n">
-        <v>873.8624055176685</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W46" t="n">
-        <v>584.4452354807079</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X46" t="n">
-        <v>584.4452354807079</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="Y46" t="n">
-        <v>584.4452354807079</v>
+        <v>1275.130855347408</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>96.03744927814716</v>
+        <v>288.4091825776769</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445223</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776769</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>199.7396287231156</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445223</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504509</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735881</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445223</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776758</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9957,22 +9957,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776758</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>104.6241510367948</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776757</v>
+        <v>104.874910276575</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,19 +10662,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.222133505507372e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338631</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2.899014361901209e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338631</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.821697689779768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>54.64862366056644</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>154.2427457127109</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>44.278393308918</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>117.6418195819336</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24224,7 +24224,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>112.0461230596374</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>77.83138328065138</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>26.60011880760489</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,7 +25084,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>155.4253114448895</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>185.2331835502361</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>60.26032711955176</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>73.1524368202532</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>50.31187765882899</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25603,19 +25603,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>121.5412767643421</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,25 +25831,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>261.4148487131002</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>47.24130101521254</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>251.0835827947561</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>947434.0422453427</v>
+        <v>947434.0422453424</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>947434.0422453427</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453427</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453429</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>947434.0422453427</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>947434.0422453427</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26314,7 @@
         <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719629</v>
@@ -26326,10 +26326,10 @@
         <v>449683.4186983652</v>
       </c>
       <c r="G2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.418698365</v>
       </c>
       <c r="H2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="I2" t="n">
         <v>449683.4186983652</v>
@@ -26338,19 +26338,19 @@
         <v>449683.4186983652</v>
       </c>
       <c r="K2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="L2" t="n">
+        <v>449683.418698365</v>
+      </c>
+      <c r="M2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="N2" t="n">
         <v>449683.4186983653</v>
       </c>
-      <c r="L2" t="n">
-        <v>449683.4186983652</v>
-      </c>
-      <c r="M2" t="n">
-        <v>449683.4186983655</v>
-      </c>
-      <c r="N2" t="n">
-        <v>449683.4186983651</v>
-      </c>
       <c r="O2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="P2" t="n">
         <v>449683.4186983652</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.611524223539163e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871659</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871661</v>
@@ -26497,7 +26497,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-377747.0380912597</v>
+        <v>-375218.7169278172</v>
       </c>
       <c r="C6" t="n">
-        <v>212220.8411232849</v>
+        <v>214749.1622867273</v>
       </c>
       <c r="D6" t="n">
-        <v>212220.841123285</v>
+        <v>214749.1622867273</v>
       </c>
       <c r="E6" t="n">
-        <v>-198802.3085175466</v>
+        <v>-196767.4892795494</v>
       </c>
       <c r="F6" t="n">
-        <v>326357.7279593493</v>
+        <v>328392.5471973462</v>
       </c>
       <c r="G6" t="n">
-        <v>326357.7279593493</v>
+        <v>328392.5471973461</v>
       </c>
       <c r="H6" t="n">
-        <v>326357.7279593495</v>
+        <v>328392.5471973459</v>
       </c>
       <c r="I6" t="n">
-        <v>326357.7279593493</v>
+        <v>328392.5471973463</v>
       </c>
       <c r="J6" t="n">
-        <v>149934.5087667564</v>
+        <v>151969.3280047533</v>
       </c>
       <c r="K6" t="n">
-        <v>326357.7279593495</v>
+        <v>328392.5471973462</v>
       </c>
       <c r="L6" t="n">
-        <v>326357.7279593493</v>
+        <v>328392.5471973461</v>
       </c>
       <c r="M6" t="n">
-        <v>191556.7127255125</v>
+        <v>193591.5319635091</v>
       </c>
       <c r="N6" t="n">
-        <v>326357.7279593493</v>
+        <v>328392.5471973463</v>
       </c>
       <c r="O6" t="n">
-        <v>326357.7279593494</v>
+        <v>328392.5471973463</v>
       </c>
       <c r="P6" t="n">
-        <v>326357.7279593494</v>
+        <v>328392.5471973462</v>
       </c>
     </row>
   </sheetData>
@@ -26738,19 +26738,19 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540999</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540999</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540999</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370132</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>261.744843021871</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>164.3604017932786</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>171.2488638306982</v>
       </c>
       <c r="W4" t="n">
-        <v>157.4983735401875</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32.54233857550719</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>61.36463152113581</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>24.95409234429435</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>64.56101176365445</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>63.88146781602552</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>129.4945431317918</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>17.82694103524675</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.885271837006968</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041486</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565516</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.040313094699</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104645</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,46 +31832,46 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127061</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361486</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,43 +31914,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892242</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135181</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041486</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565516</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.040313094699</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104645</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,46 +32069,46 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127061</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361486</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,43 +32151,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892242</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135181</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041486</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565516</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.040313094699</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104645</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,46 +32306,46 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127061</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361486</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,43 +32388,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892242</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135181</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35252,7 +35252,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221114</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349799</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953154</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2951542341714</v>
+        <v>537.666887533701</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.424377050466</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980126</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411079</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P13" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187469</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221114</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349799</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953154</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>537.666887533701</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.424377050466</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980126</v>
       </c>
       <c r="O15" t="n">
-        <v>482.1033309642237</v>
+        <v>282.3637022411079</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P16" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187469</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221114</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349799</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953154</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560241</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.424377050466</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980126</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411079</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714616</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P19" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187469</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875337001</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36452,10 +36452,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875337001</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>415.048528087261</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875337</v>
+        <v>354.1326152325993</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
@@ -36926,10 +36926,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>384.9870895382561</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
@@ -37403,7 +37403,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37637,10 +37637,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37874,7 +37874,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38032,7 +38032,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1328725.823028382</v>
+        <v>1404255.492693187</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665972</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>249.4237682275164</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>22.3112479598479</v>
       </c>
     </row>
     <row r="3">
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,28 +861,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>110.6860793789968</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>80.88877949312982</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>321.5584859445101</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>189.8595359871535</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>120.2570633735997</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>160.4740936944298</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>260.0413049483316</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>15.5863391041181</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1303,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>27.37301815329025</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>26.71728140711195</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527396</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>143.3158222056508</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>174.3062600431766</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722589</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056508</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>93.96684935764591</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>39.5596058228581</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2245,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>48.85174888144395</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>33.35146980185944</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2530,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>161.1706059301398</v>
+        <v>23.54872654977585</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>34.38783958693173</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>108.3380852219939</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.0005969012859</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>80.96586895946427</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>68.51867274638114</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3241,19 +3243,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>101.2898147863549</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>86.17363552701741</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -3481,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>125.9178253178347</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3518,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>132.5906791667248</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>98.30359535938337</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3724,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>58.29070341759515</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>195.5559609429028</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.5906791667248</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>199.8217265445594</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2310.5492509541</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1941.586734013689</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1583.321035406938</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1197.532782808694</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>786.5468780190865</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4331,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4361,19 +4363,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>2697.149091018222</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y2" t="n">
-        <v>2697.149091018222</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>616.324863621589</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="V4" t="n">
-        <v>617.0062271882081</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="W4" t="n">
-        <v>327.5890571512475</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1376.372217881286</v>
+        <v>1902.75190621448</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>1533.789389274068</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>1175.523690667317</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>789.7354380690731</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>378.7495332794655</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4598,19 +4600,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2450.343092470783</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2119.280205127212</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1766.511549857098</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>1766.511549857098</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y5" t="n">
-        <v>1376.372217881286</v>
+        <v>2289.351746278601</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>606.6572030209802</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>606.6572030209802</v>
       </c>
       <c r="T7" t="n">
-        <v>536.6170209242687</v>
+        <v>606.6572030209802</v>
       </c>
       <c r="U7" t="n">
-        <v>536.6170209242687</v>
+        <v>606.6572030209802</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1253.251950079336</v>
+        <v>1611.619444146873</v>
       </c>
       <c r="C8" t="n">
-        <v>1253.251950079336</v>
+        <v>1611.619444146873</v>
       </c>
       <c r="D8" t="n">
-        <v>894.986251472586</v>
+        <v>1611.619444146873</v>
       </c>
       <c r="E8" t="n">
-        <v>894.986251472586</v>
+        <v>1225.831191548629</v>
       </c>
       <c r="F8" t="n">
-        <v>888.0407507233825</v>
+        <v>814.8452867590213</v>
       </c>
       <c r="G8" t="n">
-        <v>470.0769426215694</v>
+        <v>396.8814786572082</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>69.686758693211</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.851790143458</v>
+        <v>1998.219284210995</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81.59249510651622</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C10" t="n">
-        <v>81.59249510651622</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D10" t="n">
-        <v>81.59249510651622</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E10" t="n">
-        <v>81.59249510651622</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>81.59249510651622</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>81.59249510651622</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>81.59249510651622</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>81.59249510651622</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>336.2769833124031</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>336.2769833124031</v>
+        <v>671.7249121235794</v>
       </c>
       <c r="V10" t="n">
-        <v>81.59249510651622</v>
+        <v>671.7249121235794</v>
       </c>
       <c r="W10" t="n">
-        <v>81.59249510651622</v>
+        <v>671.7249121235794</v>
       </c>
       <c r="X10" t="n">
-        <v>81.59249510651622</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="Y10" t="n">
-        <v>81.59249510651622</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028583</v>
@@ -5042,19 +5044,19 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899126</v>
@@ -5075,16 +5077,16 @@
         <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5123,19 @@
         <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571605</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.718781115525</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395486</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028583</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
         <v>1283.483062980063</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>786.082206476518</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706311</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336705</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028583</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028583</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.3213845506</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610188</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003438</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121728</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851613</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590533</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614722</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571605</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115525</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395486</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028581</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028581</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028581</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028581</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028581</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028581</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028581</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
         <v>1283.483062980063</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>786.082206476518</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706311</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336705</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028581</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028581</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="17">
@@ -5498,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,13 +5533,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,13 +5551,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250802</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095314</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>3158.474758001778</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3465.79489128174</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>3795.657518945772</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4075.197584164469</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4595.498205900216</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>917.0640635030455</v>
+        <v>306.1124721890595</v>
       </c>
       <c r="C19" t="n">
-        <v>917.0640635030455</v>
+        <v>137.1762892611526</v>
       </c>
       <c r="D19" t="n">
-        <v>822.1480540508779</v>
+        <v>137.1762892611526</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119727</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119727</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333285</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>1098.712528333285</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W19" t="n">
-        <v>1098.712528333285</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X19" t="n">
-        <v>1098.712528333285</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.712528333285</v>
+        <v>306.1124721890595</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5731,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382245</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,31 +5770,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5817,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>444.8933943850831</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C22" t="n">
-        <v>444.8933943850831</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D22" t="n">
-        <v>444.8933943850831</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E22" t="n">
-        <v>296.98030080269</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F22" t="n">
-        <v>296.98030080269</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123425</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>3782.260917288848</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286132</v>
+        <v>3492.843747251887</v>
       </c>
       <c r="X22" t="n">
-        <v>665.6859735286132</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="Y22" t="n">
-        <v>444.8933943850831</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="23">
@@ -5978,34 +5980,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164472</v>
       </c>
       <c r="P24" t="n">
-        <v>2358.217138262064</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.2699138005285</v>
+        <v>3628.091576844582</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="V25" t="n">
-        <v>1336.117678709276</v>
+        <v>4547.939341753329</v>
       </c>
       <c r="W25" t="n">
-        <v>1046.700508672316</v>
+        <v>4258.522171716369</v>
       </c>
       <c r="X25" t="n">
-        <v>818.7109577742983</v>
+        <v>4030.532620818351</v>
       </c>
       <c r="Y25" t="n">
-        <v>597.9183786307682</v>
+        <v>3809.740041674821</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028583</v>
@@ -6251,25 +6253,25 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6312,16 +6314,16 @@
         <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3808.955854596716</v>
+        <v>4094.29663151949</v>
       </c>
       <c r="C28" t="n">
-        <v>3808.955854596716</v>
+        <v>3925.360448591583</v>
       </c>
       <c r="D28" t="n">
-        <v>3808.955854596716</v>
+        <v>3775.243809179247</v>
       </c>
       <c r="E28" t="n">
-        <v>3774.220663094764</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="F28" t="n">
         <v>3627.330715596854</v>
@@ -6406,28 +6408,28 @@
         <v>4860.854573014291</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576117</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.859459491669</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="T28" t="n">
-        <v>4326.074044281175</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="U28" t="n">
-        <v>4036.945405494733</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="V28" t="n">
-        <v>4036.945405494733</v>
+        <v>4606.170084808405</v>
       </c>
       <c r="W28" t="n">
-        <v>4036.945405494733</v>
+        <v>4606.170084808405</v>
       </c>
       <c r="X28" t="n">
-        <v>3808.955854596716</v>
+        <v>4496.737675493259</v>
       </c>
       <c r="Y28" t="n">
-        <v>3808.955854596716</v>
+        <v>4275.945096349729</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6464,7 +6466,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6497,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>638.3691419079765</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1141.200876391121</v>
+        <v>627.6468934660855</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632137</v>
+        <v>458.7107105381787</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>458.7107105381787</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>458.7107105381787</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>458.7107105381787</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>290.5353888579992</v>
       </c>
       <c r="H31" t="n">
         <v>208.7516828383384</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W31" t="n">
-        <v>1244.231782352015</v>
+        <v>809.2953582963253</v>
       </c>
       <c r="X31" t="n">
-        <v>1244.231782352015</v>
+        <v>809.2953582963253</v>
       </c>
       <c r="Y31" t="n">
-        <v>1244.231782352015</v>
+        <v>809.2953582963253</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,28 +6685,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6716,16 +6718,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6734,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916675</v>
+        <v>893.5623804327207</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916675</v>
+        <v>893.5623804327207</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916675</v>
+        <v>743.445741020385</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.859459491669</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4326.074044281175</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>4036.945405494733</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V34" t="n">
-        <v>3782.260917288846</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W34" t="n">
-        <v>3679.947973060205</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X34" t="n">
-        <v>3679.947973060205</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916675</v>
+        <v>1075.21084526296</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6919,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -7014,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>799.8610847926847</v>
+        <v>714.6010158349783</v>
       </c>
       <c r="C37" t="n">
-        <v>799.8610847926847</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D37" t="n">
-        <v>649.7444453803489</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E37" t="n">
-        <v>562.7003690904323</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
         <v>247.6350999123426</v>
@@ -7129,16 +7131,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.499100520942</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X37" t="n">
-        <v>981.5095496229244</v>
+        <v>1117.042059808748</v>
       </c>
       <c r="Y37" t="n">
-        <v>981.5095496229244</v>
+        <v>896.249480665218</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,10 +7162,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,28 +7174,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7205,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7260,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,7 +7271,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3895.563459493836</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C40" t="n">
-        <v>3726.627276565929</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D40" t="n">
-        <v>3627.330715596855</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E40" t="n">
-        <v>3627.330715596855</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F40" t="n">
-        <v>3627.330715596855</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916676</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4525.994054365623</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>4525.994054365623</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V40" t="n">
-        <v>4525.994054365623</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W40" t="n">
-        <v>4525.994054365623</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X40" t="n">
-        <v>4298.004503467606</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="Y40" t="n">
-        <v>4077.211924324076</v>
+        <v>1275.130855347408</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,25 +7396,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7427,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7451,10 +7453,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7494,22 +7496,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>861.4909633328887</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C43" t="n">
-        <v>692.5547804049818</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7600,19 +7602,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1209.787631771461</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>920.3704617344999</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X43" t="n">
-        <v>920.3704617344999</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y43" t="n">
-        <v>920.3704617344999</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="44">
@@ -7625,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7679,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7731,16 +7733,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1141.200876391121</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C46" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V46" t="n">
-        <v>1275.130855347408</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="W46" t="n">
-        <v>1275.130855347408</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X46" t="n">
-        <v>1275.130855347408</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y46" t="n">
-        <v>1275.130855347408</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8307,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360584</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>288.4091825776769</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445223</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>288.4091825776769</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445223</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504509</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>180.0237016735881</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445223</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776736</v>
       </c>
       <c r="Q24" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9960,19 +9962,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>104.6241510367948</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10188,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>104.874910276575</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10662,19 +10664,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11379,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.222133505507372e-12</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>82.39383318338631</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>44.27839330891823</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2.899014361901209e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>77.06777566241342</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338631</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>54.64862366056644</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>106.8743568237111</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24133,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>117.6418195819336</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871777</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24418,10 +24420,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>90.9670373936882</v>
+        <v>228.5889167740522</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24461,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>112.0461230596374</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>117.3715701670432</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>77.83138328065138</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>67.94795940807185</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24892,13 +24894,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>77.91528990018803</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>185.2331835502361</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>60.26032711955176</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25369,16 +25371,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>99.79183007120243</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>47.24130101521254</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>50.31187765882899</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25612,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>121.5412767643421</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25840,19 +25842,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>90.96703739368823</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.24130101521254</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>52.3159167792686</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>947434.0422453424</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>947434.0422453429</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26316,46 @@
         <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
-      <c r="D2" t="n">
-        <v>472099.0176719629</v>
-      </c>
       <c r="E2" t="n">
+        <v>449683.4186983651</v>
+      </c>
+      <c r="F2" t="n">
+        <v>449683.4186983651</v>
+      </c>
+      <c r="G2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="H2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="J2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="K2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="L2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="M2" t="n">
+        <v>449683.4186983651</v>
+      </c>
+      <c r="N2" t="n">
         <v>449683.4186983652</v>
-      </c>
-      <c r="G2" t="n">
-        <v>449683.418698365</v>
-      </c>
-      <c r="H2" t="n">
-        <v>449683.4186983651</v>
-      </c>
-      <c r="I2" t="n">
-        <v>449683.4186983652</v>
-      </c>
-      <c r="J2" t="n">
-        <v>449683.4186983652</v>
-      </c>
-      <c r="K2" t="n">
-        <v>449683.4186983652</v>
-      </c>
-      <c r="L2" t="n">
-        <v>449683.418698365</v>
-      </c>
-      <c r="M2" t="n">
-        <v>449683.4186983652</v>
-      </c>
-      <c r="N2" t="n">
-        <v>449683.4186983653</v>
       </c>
       <c r="O2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>2.611524223539163e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26418,10 +26420,10 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
+        <v>174490.7773218261</v>
+      </c>
+      <c r="D4" t="n">
         <v>174490.7773218262</v>
-      </c>
-      <c r="D4" t="n">
-        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
@@ -26430,19 +26432,19 @@
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
         <v>29303.54555230233</v>
@@ -26473,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871661</v>
@@ -26497,13 +26499,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26528,7 +26530,7 @@
         <v>214749.1622867273</v>
       </c>
       <c r="E6" t="n">
-        <v>-196767.4892795494</v>
+        <v>-196767.4892795499</v>
       </c>
       <c r="F6" t="n">
         <v>328392.5471973462</v>
@@ -26537,31 +26539,31 @@
         <v>328392.5471973461</v>
       </c>
       <c r="H6" t="n">
-        <v>328392.5471973459</v>
+        <v>328392.5471973463</v>
       </c>
       <c r="I6" t="n">
         <v>328392.5471973463</v>
       </c>
       <c r="J6" t="n">
-        <v>151969.3280047533</v>
+        <v>151969.3280047534</v>
       </c>
       <c r="K6" t="n">
+        <v>328392.5471973463</v>
+      </c>
+      <c r="L6" t="n">
+        <v>328392.5471973463</v>
+      </c>
+      <c r="M6" t="n">
+        <v>193591.531963509</v>
+      </c>
+      <c r="N6" t="n">
         <v>328392.5471973462</v>
-      </c>
-      <c r="L6" t="n">
-        <v>328392.5471973461</v>
-      </c>
-      <c r="M6" t="n">
-        <v>193591.5319635091</v>
-      </c>
-      <c r="N6" t="n">
-        <v>328392.5471973463</v>
       </c>
       <c r="O6" t="n">
         <v>328392.5471973463</v>
       </c>
       <c r="P6" t="n">
-        <v>328392.5471973462</v>
+        <v>328392.5471973463</v>
       </c>
     </row>
   </sheetData>
@@ -26735,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054540999</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054540999</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054540999</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26768,10 +26770,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370132</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>164.3604017932786</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,19 +27435,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>363.9266906962057</v>
       </c>
     </row>
     <row r="3">
@@ -27579,28 +27581,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>101.4594595710221</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>171.2488638306982</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>92.22568407628489</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,10 +27672,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>61.36463152113581</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,10 +27779,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27816,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>26.40812860655815</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>64.56101176365445</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>63.88146781602552</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.3449771407431</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>17.82694103524675</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>259.5645928348658</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
@@ -31762,37 +31764,37 @@
         <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565516</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104645</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31837,43 @@
         <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361486</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298627</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263749</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
@@ -31999,37 +32001,37 @@
         <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565516</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104645</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,43 +32074,43 @@
         <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361486</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298627</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263749</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565516</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104645</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361486</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263749</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,7 +35029,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35415,25 @@
         <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349799</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953154</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>537.666887533701</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.424377050466</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980126</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411079</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556547</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187469</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349799</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953154</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>537.666887533701</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.424377050466</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980126</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411079</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315245</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556547</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187469</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349799</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953154</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560241</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.424377050466</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980126</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411079</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714616</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.0367344586621</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187469</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,19 +36445,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091983</v>
       </c>
       <c r="Q24" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36680,19 +36682,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>415.048528087261</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>354.1326152325993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
@@ -36926,10 +36928,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37864,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37874,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38099,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38111,7 +38113,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1404255.492693187</v>
+        <v>1397238.477801476</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.3112479598479</v>
+        <v>248.8850931379793</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>111.8996178809215</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>110.6860793789968</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>321.5584859445101</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>76.9238550822418</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1098,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>9.693200015578078</v>
       </c>
       <c r="R7" t="n">
-        <v>120.2570633735997</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>15.5863391041181</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>129.1935566495327</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>26.71728140711195</v>
+        <v>247.9966967793304</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>118.4898845065125</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431766</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>66.24225800079681</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>39.5596058228581</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>41.88171928086712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>3.633341602777112</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>33.35146980185944</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>115.5269768002182</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>23.54872654977585</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>59.04395605284602</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>108.3380852219939</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>80.96586895946427</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>68.51867274638114</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>127.6176159584067</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>42.7396614681395</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>125.9178253178347</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.5906791667248</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>215.705391967079</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>195.5559609429028</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>164.3675597136119</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>199.8217265445594</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>27.37255160319397</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1386.090004781549</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4427,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>381.6292235663335</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>381.6292235663335</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>381.6292235663335</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>381.6292235663335</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>212.6294233046659</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>212.6294233046659</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>616.324863621589</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>389.0166762901907</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U4" t="n">
-        <v>389.0166762901907</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V4" t="n">
-        <v>389.0166762901907</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59950625323012</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1902.75190621448</v>
+        <v>1095.807382993972</v>
       </c>
       <c r="C5" t="n">
-        <v>1533.789389274068</v>
+        <v>1095.807382993972</v>
       </c>
       <c r="D5" t="n">
-        <v>1175.523690667317</v>
+        <v>1095.807382993972</v>
       </c>
       <c r="E5" t="n">
-        <v>789.7354380690731</v>
+        <v>710.0191303957276</v>
       </c>
       <c r="F5" t="n">
-        <v>378.7495332794655</v>
+        <v>299.0332256061201</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>285.109821544711</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>2289.351746278601</v>
+        <v>1485.946714969784</v>
       </c>
       <c r="Y5" t="n">
-        <v>2289.351746278601</v>
+        <v>1095.807382993972</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9727148150933</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
         <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>718.3378730795879</v>
       </c>
       <c r="R7" t="n">
-        <v>606.6572030209802</v>
+        <v>718.3378730795879</v>
       </c>
       <c r="S7" t="n">
-        <v>606.6572030209802</v>
+        <v>718.3378730795879</v>
       </c>
       <c r="T7" t="n">
-        <v>606.6572030209802</v>
+        <v>491.0296857481896</v>
       </c>
       <c r="U7" t="n">
-        <v>606.6572030209802</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="V7" t="n">
-        <v>351.9727148150933</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="W7" t="n">
-        <v>351.9727148150933</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X7" t="n">
-        <v>351.9727148150933</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y7" t="n">
-        <v>351.9727148150933</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1611.619444146873</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="C8" t="n">
-        <v>1611.619444146873</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>1611.619444146873</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>1225.831191548629</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>814.8452867590213</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>396.8814786572082</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>69.686758693211</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2566.650548947988</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2312.888763586079</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>1981.825876242509</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.358616186807</v>
+        <v>1629.057220972395</v>
       </c>
       <c r="X8" t="n">
-        <v>2388.358616186807</v>
+        <v>1255.591462711315</v>
       </c>
       <c r="Y8" t="n">
-        <v>1998.219284210995</v>
+        <v>865.4521307355029</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4953,58 +4953,58 @@
         <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>671.7249121235794</v>
+        <v>477.6272702879189</v>
       </c>
       <c r="V10" t="n">
-        <v>671.7249121235794</v>
+        <v>222.942782082032</v>
       </c>
       <c r="W10" t="n">
-        <v>671.7249121235794</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X10" t="n">
-        <v>443.7353612255621</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y10" t="n">
         <v>222.942782082032</v>
@@ -5038,43 +5038,43 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>316.9584588710871</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636247</v>
+        <v>563.7235867775513</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>216.9038434870662</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>216.9038434870662</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>216.9038434870662</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>216.9038434870662</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>216.9038434870662</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>462.7283310300493</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636247</v>
+        <v>709.4934589365134</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.9054447954965</v>
+        <v>462.4595652127123</v>
       </c>
       <c r="C16" t="n">
-        <v>130.9054447954965</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="D16" t="n">
-        <v>130.9054447954965</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="E16" t="n">
-        <v>130.9054447954965</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>130.9054447954965</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>130.9054447954965</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>644.108030042952</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954965</v>
+        <v>644.108030042952</v>
       </c>
       <c r="X16" t="n">
-        <v>130.9054447954965</v>
+        <v>644.108030042952</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.9054447954965</v>
+        <v>644.108030042952</v>
       </c>
     </row>
     <row r="17">
@@ -5506,43 +5506,43 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5551,13 +5551,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>306.1124721890595</v>
+        <v>289.9398668627134</v>
       </c>
       <c r="C19" t="n">
-        <v>137.1762892611526</v>
+        <v>289.9398668627134</v>
       </c>
       <c r="D19" t="n">
-        <v>137.1762892611526</v>
+        <v>289.9398668627134</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>289.9398668627134</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>289.9398668627134</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>1044.311772267568</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W19" t="n">
-        <v>754.894602230607</v>
+        <v>920.3704617345006</v>
       </c>
       <c r="X19" t="n">
-        <v>526.9050513325897</v>
+        <v>692.3809108364833</v>
       </c>
       <c r="Y19" t="n">
-        <v>306.1124721890595</v>
+        <v>471.5883316929531</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,46 +5737,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298184</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916676</v>
+        <v>100.8871334832931</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916676</v>
+        <v>100.8871334832931</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916676</v>
+        <v>100.8871334832931</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>100.8871334832931</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>100.8871334832931</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>100.8871334832931</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>4036.945405494735</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="V22" t="n">
-        <v>3782.260917288848</v>
+        <v>731.3177283550802</v>
       </c>
       <c r="W22" t="n">
-        <v>3492.843747251887</v>
+        <v>731.3177283550802</v>
       </c>
       <c r="X22" t="n">
-        <v>3459.155393916676</v>
+        <v>503.3281774570629</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916676</v>
+        <v>282.5355983135328</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.47475800178</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281741</v>
+        <v>1503.408902298184</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945774</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164472</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3628.091576844582</v>
+        <v>213.9110074201023</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>213.9110074201023</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>213.9110074201023</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>213.9110074201023</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>4571.72593422785</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="V25" t="n">
-        <v>4547.939341753329</v>
+        <v>731.3177283550802</v>
       </c>
       <c r="W25" t="n">
-        <v>4258.522171716369</v>
+        <v>441.9005583181196</v>
       </c>
       <c r="X25" t="n">
-        <v>4030.532620818351</v>
+        <v>213.9110074201023</v>
       </c>
       <c r="Y25" t="n">
-        <v>3809.740041674821</v>
+        <v>213.9110074201023</v>
       </c>
     </row>
     <row r="26">
@@ -6205,28 +6205,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514087</v>
@@ -6235,10 +6235,10 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6250,25 +6250,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6296,37 +6296,37 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298184</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4094.29663151949</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="C28" t="n">
-        <v>3925.360448591583</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D28" t="n">
-        <v>3775.243809179247</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E28" t="n">
-        <v>3627.330715596854</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F28" t="n">
-        <v>3627.330715596854</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014291</v>
+        <v>1439.275910908564</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014291</v>
+        <v>1150.147272122122</v>
       </c>
       <c r="V28" t="n">
-        <v>4606.170084808405</v>
+        <v>1150.147272122122</v>
       </c>
       <c r="W28" t="n">
-        <v>4606.170084808405</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="X28" t="n">
-        <v>4496.737675493259</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="Y28" t="n">
-        <v>4275.945096349729</v>
+        <v>860.7301020851612</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>627.6468934660855</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="C31" t="n">
-        <v>458.7107105381787</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="D31" t="n">
-        <v>458.7107105381787</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="E31" t="n">
-        <v>458.7107105381787</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="F31" t="n">
-        <v>458.7107105381787</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="G31" t="n">
-        <v>290.5353888579992</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1098.712528333286</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>1098.712528333286</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>809.2953582963253</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>809.2953582963253</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y31" t="n">
-        <v>809.2953582963253</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>893.5623804327207</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C34" t="n">
-        <v>893.5623804327207</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D34" t="n">
-        <v>743.445741020385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1075.21084526296</v>
+        <v>1370.009587771633</v>
       </c>
       <c r="V34" t="n">
-        <v>1075.21084526296</v>
+        <v>1115.325099565746</v>
       </c>
       <c r="W34" t="n">
-        <v>1075.21084526296</v>
+        <v>825.9079295287855</v>
       </c>
       <c r="X34" t="n">
-        <v>1075.21084526296</v>
+        <v>597.9183786307682</v>
       </c>
       <c r="Y34" t="n">
-        <v>1075.21084526296</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -7022,22 +7022,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>714.6010158349783</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C37" t="n">
-        <v>545.6648329070714</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="D37" t="n">
-        <v>395.5481934947356</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="E37" t="n">
-        <v>247.6350999123426</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>290.8064751326855</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>290.8064751326855</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>140.3884666806288</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7128,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>1244.231782352015</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>1117.042059808748</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y37" t="n">
-        <v>896.249480665218</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,13 +7162,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1141.200876391121</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C40" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1275.130855347408</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>1275.130855347408</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>1275.130855347408</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>1275.130855347408</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y40" t="n">
-        <v>1275.130855347408</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="41">
@@ -7390,40 +7390,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7438,22 +7438,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7496,16 +7496,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
         <v>97.21709146028584</v>
@@ -7602,19 +7602,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>1046.700508672316</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>818.7109577742983</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>597.9183786307682</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>266.1532743881928</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>1186.00103929694</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W46" t="n">
-        <v>896.5838692599799</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X46" t="n">
-        <v>668.5943183619626</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y46" t="n">
-        <v>447.8017392184324</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360584</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>29.47535963978143</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776759</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>176.7176547498442</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776759</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208054</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>277.6717966208053</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>277.6717966208053</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776736</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928303</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>277.6717966208054</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>26.93116351641874</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.20792265079217e-12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>101.004563097831</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>77.06777566241342</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>106.8743568237111</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>124.6118491825105</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>145.280486764759</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>192.3581855871777</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271301</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24417,13 +24417,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>228.5889167740522</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24654,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>162.5036050055432</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>117.3715701670432</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>67.94795940807185</v>
+        <v>5.598006161884655</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>77.91528990018803</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>158.6197364401707</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>67.67958399613249</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>99.79183007120243</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.24130101521254</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>2.879261385015838</v>
       </c>
     </row>
     <row r="41">
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25842,16 +25842,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>90.96703739368823</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>61.34209567542521</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26079,19 +26079,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>52.3159167792686</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>191.2121017489008</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453424</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>947434.0422453427</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="16">
@@ -26322,40 +26322,40 @@
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983654</v>
       </c>
       <c r="G2" t="n">
+        <v>449683.4186983655</v>
+      </c>
+      <c r="H2" t="n">
         <v>449683.4186983653</v>
-      </c>
-      <c r="H2" t="n">
-        <v>449683.4186983652</v>
       </c>
       <c r="I2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="J2" t="n">
+        <v>449683.4186983654</v>
+      </c>
+      <c r="K2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="L2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="M2" t="n">
         <v>449683.4186983653</v>
-      </c>
-      <c r="K2" t="n">
-        <v>449683.4186983653</v>
-      </c>
-      <c r="L2" t="n">
-        <v>449683.4186983653</v>
-      </c>
-      <c r="M2" t="n">
-        <v>449683.4186983651</v>
       </c>
       <c r="N2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="O2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983651</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="F4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="G4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="H4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="I4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="F4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="G4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="H4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="I4" t="n">
-        <v>29303.54555230232</v>
-      </c>
       <c r="J4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.5455523023</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
@@ -26472,34 +26472,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-375218.7169278172</v>
       </c>
       <c r="C6" t="n">
-        <v>214749.1622867273</v>
+        <v>214749.1622867272</v>
       </c>
       <c r="D6" t="n">
         <v>214749.1622867273</v>
       </c>
       <c r="E6" t="n">
-        <v>-196767.4892795499</v>
+        <v>-197742.0805392717</v>
       </c>
       <c r="F6" t="n">
-        <v>328392.5471973462</v>
+        <v>327417.9559376247</v>
       </c>
       <c r="G6" t="n">
-        <v>328392.5471973461</v>
+        <v>327417.9559376248</v>
       </c>
       <c r="H6" t="n">
-        <v>328392.5471973463</v>
+        <v>327417.9559376247</v>
       </c>
       <c r="I6" t="n">
-        <v>328392.5471973463</v>
+        <v>327417.9559376247</v>
       </c>
       <c r="J6" t="n">
-        <v>151969.3280047534</v>
+        <v>150994.736745032</v>
       </c>
       <c r="K6" t="n">
-        <v>328392.5471973463</v>
+        <v>327417.9559376248</v>
       </c>
       <c r="L6" t="n">
-        <v>328392.5471973463</v>
+        <v>327417.9559376246</v>
       </c>
       <c r="M6" t="n">
-        <v>193591.531963509</v>
+        <v>192616.9407037874</v>
       </c>
       <c r="N6" t="n">
-        <v>328392.5471973462</v>
+        <v>327417.9559376246</v>
       </c>
       <c r="O6" t="n">
-        <v>328392.5471973463</v>
+        <v>327417.9559376246</v>
       </c>
       <c r="P6" t="n">
-        <v>328392.5471973463</v>
+        <v>327417.9559376244</v>
       </c>
     </row>
   </sheetData>
@@ -26737,37 +26737,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
@@ -26776,10 +26776,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,25 +26792,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>363.9266906962057</v>
+        <v>137.3528455180743</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27551,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>23.06600391141677</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>101.4594595710221</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>92.22568407628489</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>246.9989176821153</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27818,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>19.42954993933622</v>
       </c>
       <c r="R7" t="n">
-        <v>26.40812860655815</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>136.3449771407431</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>87.25476370812507</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>259.5645928348658</v>
+        <v>38.28517746264728</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,43 +32311,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,43 +32785,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>180.0507982277208</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377835</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523302</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768298</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768298</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091983</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221098</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768299</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1397238.477801476</v>
+        <v>1402177.740650508</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800623</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>233.6257157225927</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>248.8850931379793</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>111.8996178809215</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>139.4384002192466</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>76.9238550822418</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -949,10 +949,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1065,19 +1065,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>9.693200015578078</v>
+        <v>6.90848140332574</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>129.1935566495327</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>7.769872728863965</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>54.460791558339</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>247.9966967793304</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>118.4898845065125</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>151.6248994057463</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>66.24225800079681</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>142.3003787938226</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G19" t="n">
-        <v>41.88171928086712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>3.633341602777112</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>138.9759415638939</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.0074638802452</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>115.5269768002182</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2614,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>59.04395605284602</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>127.6176159584067</v>
+        <v>271.7818641996879</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.93408156253786</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>42.7396614681395</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>191.6534898356754</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>215.705391967079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>164.3675597136119</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>155.8385935972304</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>27.37255160319397</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1995.909162857192</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1426.498002692507</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>1426.498002692507</v>
       </c>
       <c r="Y2" t="n">
-        <v>1995.909162857192</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4427,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942404</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>381.6292235663335</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D4" t="n">
-        <v>381.6292235663335</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E4" t="n">
-        <v>381.6292235663335</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F4" t="n">
-        <v>381.6292235663335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>212.6294233046659</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>212.6294233046659</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1095.807382993972</v>
+        <v>1504.400259589023</v>
       </c>
       <c r="C5" t="n">
-        <v>1095.807382993972</v>
+        <v>1504.400259589023</v>
       </c>
       <c r="D5" t="n">
-        <v>1095.807382993972</v>
+        <v>1504.400259589023</v>
       </c>
       <c r="E5" t="n">
-        <v>710.0191303957276</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>299.0332256061201</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>285.109821544711</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4585,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500978</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500978</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1859.412473230863</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X5" t="n">
-        <v>1485.946714969784</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y5" t="n">
-        <v>1095.807382993972</v>
+        <v>1504.400259589023</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4667,22 +4667,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>718.3378730795879</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="R7" t="n">
-        <v>718.3378730795879</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="S7" t="n">
-        <v>718.3378730795879</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="T7" t="n">
-        <v>491.0296857481896</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="U7" t="n">
-        <v>201.8560754027576</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="V7" t="n">
-        <v>201.8560754027576</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="W7" t="n">
-        <v>201.8560754027576</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="X7" t="n">
-        <v>201.8560754027576</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>721.1507201626711</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>478.8522906713811</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733129</v>
@@ -4819,7 +4819,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2566.650548947988</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2312.888763586079</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>1981.825876242509</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W8" t="n">
-        <v>1629.057220972395</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="X8" t="n">
-        <v>1255.591462711315</v>
+        <v>2182.06035969704</v>
       </c>
       <c r="Y8" t="n">
-        <v>865.4521307355029</v>
+        <v>1791.921027721229</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,16 +4883,16 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>643.7011644960776</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>643.7011644960776</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>643.7011644960776</v>
       </c>
       <c r="U10" t="n">
-        <v>477.6272702879189</v>
+        <v>643.7011644960776</v>
       </c>
       <c r="V10" t="n">
-        <v>222.942782082032</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="W10" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5038,37 +5038,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>316.9584588710871</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775513</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>216.9038434870662</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C13" t="n">
-        <v>216.9038434870662</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D13" t="n">
-        <v>216.9038434870662</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>216.9038434870662</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1345.759806511694</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655742</v>
+        <v>1091.075318305807</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286137</v>
+        <v>801.6581482688464</v>
       </c>
       <c r="X13" t="n">
-        <v>437.6964226305963</v>
+        <v>573.668597370829</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.9038434870662</v>
+        <v>573.668597370829</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5293,37 +5293,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>462.7283310300493</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>709.4934589365134</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216475</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880508</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183167</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>462.4595652127123</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="C16" t="n">
-        <v>395.5481934947357</v>
+        <v>388.8679414000756</v>
       </c>
       <c r="D16" t="n">
-        <v>395.5481934947357</v>
+        <v>388.8679414000756</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>240.9548478176824</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.921157035281</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>898.7925182488389</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>644.108030042952</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W16" t="n">
-        <v>644.108030042952</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X16" t="n">
-        <v>644.108030042952</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="Y16" t="n">
-        <v>644.108030042952</v>
+        <v>557.8041243279824</v>
       </c>
     </row>
     <row r="17">
@@ -5491,58 +5491,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636254</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>289.9398668627134</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C19" t="n">
-        <v>289.9398668627134</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D19" t="n">
-        <v>289.9398668627134</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E19" t="n">
-        <v>289.9398668627134</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F19" t="n">
-        <v>289.9398668627134</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.787631771461</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>920.3704617345006</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>692.3809108364833</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
-        <v>471.5883316929531</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="20">
@@ -5728,55 +5728,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1196.088769018223</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M21" t="n">
-        <v>1503.408902298184</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1833.271529962217</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.8871334832931</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C22" t="n">
-        <v>100.8871334832931</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D22" t="n">
-        <v>100.8871334832931</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E22" t="n">
-        <v>100.8871334832931</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>100.8871334832931</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>100.8871334832931</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>1358.536531604474</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609671</v>
+        <v>1069.407892818032</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550802</v>
+        <v>814.7234046121455</v>
       </c>
       <c r="W22" t="n">
-        <v>731.3177283550802</v>
+        <v>814.7234046121455</v>
       </c>
       <c r="X22" t="n">
-        <v>503.3281774570629</v>
+        <v>814.7234046121455</v>
       </c>
       <c r="Y22" t="n">
-        <v>282.5355983135328</v>
+        <v>593.9308254686154</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1503.408902298184</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>213.9110074201023</v>
+        <v>533.6251570374463</v>
       </c>
       <c r="C25" t="n">
-        <v>213.9110074201023</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D25" t="n">
-        <v>213.9110074201023</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>213.9110074201023</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609671</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550802</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181196</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201023</v>
+        <v>936.0662010112162</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.9110074201023</v>
+        <v>715.2736218676861</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6250,28 +6250,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6296,37 +6296,37 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
-        <v>1503.408902298184</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1439.275910908564</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1150.147272122122</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1150.147272122122</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>860.7301020851612</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6548,22 +6548,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>241.9805482336712</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1370.009587771633</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V34" t="n">
-        <v>1115.325099565746</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W34" t="n">
-        <v>825.9079295287855</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>597.9183786307682</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,7 +6955,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>437.6964226305959</v>
+        <v>324.6725486937866</v>
       </c>
       <c r="C37" t="n">
-        <v>437.6964226305959</v>
+        <v>155.7363657658796</v>
       </c>
       <c r="D37" t="n">
-        <v>437.6964226305959</v>
+        <v>155.7363657658796</v>
       </c>
       <c r="E37" t="n">
-        <v>437.6964226305959</v>
+        <v>155.7363657658796</v>
       </c>
       <c r="F37" t="n">
-        <v>290.8064751326855</v>
+        <v>155.7363657658796</v>
       </c>
       <c r="G37" t="n">
-        <v>290.8064751326855</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>140.3884666806288</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7134,13 +7134,13 @@
         <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286132</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X37" t="n">
-        <v>437.6964226305959</v>
+        <v>727.1135926675564</v>
       </c>
       <c r="Y37" t="n">
-        <v>437.6964226305959</v>
+        <v>506.3210135240263</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7259,22 +7259,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>266.1532743881928</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1305.326886885503</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655738</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W40" t="n">
-        <v>665.6859735286132</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X40" t="n">
-        <v>665.6859735286132</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y40" t="n">
-        <v>447.8017392184324</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7414,7 +7414,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7438,22 +7438,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7496,22 +7496,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1196.088769018223</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M42" t="n">
-        <v>1503.408902298185</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1833.271529962218</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7733,22 +7733,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7839,16 +7839,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>1209.787631771461</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="W46" t="n">
-        <v>920.3704617344999</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X46" t="n">
-        <v>920.3704617344999</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y46" t="n">
         <v>892.7214197110717</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451758</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>29.47535963978143</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>43.65987261462533</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>176.7176547498442</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208054</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>277.6717966208053</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>277.6717966208053</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928303</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>277.6717966208054</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>277.6717966208062</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>26.93116351641874</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23472,7 +23472,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>134.6124529928311</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>101.004563097831</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>3.120669229108643</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G19" t="n">
-        <v>124.6118491825105</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23943,13 +23943,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>145.280486764759</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24180,7 +24180,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.57161949449539</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>29.23935721838259</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>29.89407122271301</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>162.5036050055432</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>5.598006161884655</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>158.6197364401707</v>
+        <v>14.45548819888944</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>108.5594869008397</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>67.67958399613249</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25602,7 +25602,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>29.89407122271382</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.879261385015838</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>61.34209567542521</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26079,19 +26079,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>96.29904972659759</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>191.2121017489008</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>947434.0422453424</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453427</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>947434.0422453425</v>
+        <v>947434.0422453426</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>947434.0422453426</v>
+        <v>947434.0422453425</v>
       </c>
     </row>
   </sheetData>
@@ -26319,31 +26319,31 @@
         <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="F2" t="n">
         <v>449683.4186983653</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="H2" t="n">
         <v>449683.4186983654</v>
       </c>
-      <c r="G2" t="n">
-        <v>449683.4186983655</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="J2" t="n">
+        <v>449683.4186983651</v>
+      </c>
+      <c r="K2" t="n">
         <v>449683.4186983653</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>449683.4186983653</v>
-      </c>
-      <c r="J2" t="n">
-        <v>449683.4186983654</v>
-      </c>
-      <c r="K2" t="n">
-        <v>449683.4186983652</v>
-      </c>
-      <c r="L2" t="n">
-        <v>449683.4186983652</v>
       </c>
       <c r="M2" t="n">
         <v>449683.4186983653</v>
@@ -26355,7 +26355,7 @@
         <v>449683.4186983652</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983652</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,28 +26420,28 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
+        <v>174490.7773218262</v>
+      </c>
+      <c r="D4" t="n">
         <v>174490.7773218261</v>
       </c>
-      <c r="D4" t="n">
-        <v>174490.7773218262</v>
-      </c>
       <c r="E4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.5455523023</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
@@ -26472,40 +26472,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340947</v>
       </c>
-      <c r="D5" t="n">
-        <v>82859.07806340948</v>
-      </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26524,46 +26524,46 @@
         <v>-375218.7169278172</v>
       </c>
       <c r="C6" t="n">
-        <v>214749.1622867272</v>
+        <v>214749.1622867273</v>
       </c>
       <c r="D6" t="n">
         <v>214749.1622867273</v>
       </c>
       <c r="E6" t="n">
-        <v>-197742.0805392717</v>
+        <v>-196864.948405522</v>
       </c>
       <c r="F6" t="n">
-        <v>327417.9559376247</v>
+        <v>328295.0880713742</v>
       </c>
       <c r="G6" t="n">
-        <v>327417.9559376248</v>
+        <v>328295.0880713742</v>
       </c>
       <c r="H6" t="n">
-        <v>327417.9559376247</v>
+        <v>328295.0880713743</v>
       </c>
       <c r="I6" t="n">
-        <v>327417.9559376247</v>
+        <v>328295.0880713741</v>
       </c>
       <c r="J6" t="n">
-        <v>150994.736745032</v>
+        <v>151871.8688787811</v>
       </c>
       <c r="K6" t="n">
-        <v>327417.9559376248</v>
+        <v>328295.0880713742</v>
       </c>
       <c r="L6" t="n">
-        <v>327417.9559376246</v>
+        <v>328295.0880713742</v>
       </c>
       <c r="M6" t="n">
-        <v>192616.9407037874</v>
+        <v>193494.072837537</v>
       </c>
       <c r="N6" t="n">
-        <v>327417.9559376246</v>
+        <v>328295.088071374</v>
       </c>
       <c r="O6" t="n">
-        <v>327417.9559376246</v>
+        <v>328295.088071374</v>
       </c>
       <c r="P6" t="n">
-        <v>327417.9559376244</v>
+        <v>328295.088071374</v>
       </c>
     </row>
   </sheetData>
@@ -26737,43 +26737,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
@@ -26792,25 +26792,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>115.6152529948203</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>137.3528455180743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>23.06600391141677</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27624,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>242.4919698530151</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>246.9989176821153</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27785,19 +27785,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.42954993933622</v>
+        <v>22.21426855158856</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27827,10 +27827,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>87.25476370812507</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>361.9612279496051</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>92.20440042181883</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>38.28517746264728</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355125</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>180.0507982277208</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>326.0235748557334</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>327.2930933377835</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>621.6037559756885</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523302</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>526.9295015768298</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>526.9295015768298</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221098</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>526.9295015768299</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>526.9295015768305</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
@@ -37882,7 +37882,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38101,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504663</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
